--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_DeepAR_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_DeepAR_No_Lineal_Estacionario_SETAR.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.229402837624811</v>
+        <v>0.3590997471984654</v>
       </c>
       <c r="D2">
-        <v>0.9694409085847842</v>
+        <v>0.9670935300015311</v>
       </c>
       <c r="E2">
-        <v>0.7706039662012114</v>
+        <v>0.768339686013521</v>
       </c>
       <c r="F2">
-        <v>0.5149033684446773</v>
+        <v>0.5084733096611793</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.229402837624811</v>
+        <v>0.3590997471984654</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4705517610806647</v>
+        <v>0.4686305257590322</v>
       </c>
       <c r="E3">
-        <v>0.5338265534121529</v>
+        <v>0.5987985341715687</v>
       </c>
       <c r="F3">
-        <v>0.8925424756904596</v>
+        <v>0.886037845656416</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9694409085847842</v>
+        <v>0.9670935300015311</v>
       </c>
       <c r="C4">
-        <v>0.4705517610806647</v>
+        <v>0.4686305257590322</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.6875824166204363</v>
+        <v>0.5761156918454575</v>
       </c>
       <c r="F4">
-        <v>0.3943034525402691</v>
+        <v>0.3912223736152693</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7706039662012114</v>
+        <v>0.768339686013521</v>
       </c>
       <c r="C5">
-        <v>0.5338265534121529</v>
+        <v>0.5987985341715687</v>
       </c>
       <c r="D5">
-        <v>0.6875824166204363</v>
+        <v>0.5761156918454575</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6624697733344691</v>
+        <v>0.6321422126746556</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5149033684446773</v>
+        <v>0.5084733096611793</v>
       </c>
       <c r="C6">
-        <v>0.8925424756904596</v>
+        <v>0.886037845656416</v>
       </c>
       <c r="D6">
-        <v>0.3943034525402691</v>
+        <v>0.3912223736152693</v>
       </c>
       <c r="E6">
-        <v>0.6624697733344691</v>
+        <v>0.6321422126746556</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.203434004519802</v>
+        <v>0.948218489413392</v>
       </c>
       <c r="D2">
-        <v>-0.03832953897056318</v>
+        <v>-0.04199781583525591</v>
       </c>
       <c r="E2">
-        <v>0.2917501543111223</v>
+        <v>0.300328930190103</v>
       </c>
       <c r="F2">
-        <v>0.6517060688229953</v>
+        <v>0.6785688267966051</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-1.203434004519802</v>
+        <v>-0.948218489413392</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.7221547066511095</v>
+        <v>-0.7449389116060402</v>
       </c>
       <c r="E3">
-        <v>-0.6226260886423172</v>
+        <v>-0.5383388273454124</v>
       </c>
       <c r="F3">
-        <v>-0.135159586911389</v>
+        <v>-0.1459547105358091</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03832953897056318</v>
+        <v>0.04199781583525591</v>
       </c>
       <c r="C4">
-        <v>0.7221547066511095</v>
+        <v>0.7449389116060402</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4023819997226905</v>
+        <v>0.5724191171045615</v>
       </c>
       <c r="F4">
-        <v>0.8526068770436106</v>
+        <v>0.8847718767600312</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.2917501543111223</v>
+        <v>-0.300328930190103</v>
       </c>
       <c r="C5">
-        <v>0.6226260886423172</v>
+        <v>0.5383388273454124</v>
       </c>
       <c r="D5">
-        <v>-0.4023819997226905</v>
+        <v>-0.5724191171045615</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4367771790050952</v>
+        <v>0.4893929207338083</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.6517060688229953</v>
+        <v>-0.6785688267966051</v>
       </c>
       <c r="C6">
-        <v>0.135159586911389</v>
+        <v>0.1459547105358091</v>
       </c>
       <c r="D6">
-        <v>-0.8526068770436106</v>
+        <v>-0.8847718767600312</v>
       </c>
       <c r="E6">
-        <v>-0.4367771790050952</v>
+        <v>-0.4893929207338083</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_DeepAR_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_DeepAR_No_Lineal_Estacionario_SETAR.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.3590997471984654</v>
+        <v>0.2923208920155762</v>
       </c>
       <c r="D2">
-        <v>0.9670935300015311</v>
+        <v>0.272459712755859</v>
       </c>
       <c r="E2">
-        <v>0.768339686013521</v>
+        <v>0.5833984496724418</v>
       </c>
       <c r="F2">
-        <v>0.5084733096611793</v>
+        <v>0.8602012989989751</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3590997471984654</v>
+        <v>0.2923208920155762</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4686305257590322</v>
+        <v>0.9654563556614546</v>
       </c>
       <c r="E3">
-        <v>0.5987985341715687</v>
+        <v>0.7238026998826101</v>
       </c>
       <c r="F3">
-        <v>0.886037845656416</v>
+        <v>0.6022911707317689</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9670935300015311</v>
+        <v>0.272459712755859</v>
       </c>
       <c r="C4">
-        <v>0.4686305257590322</v>
+        <v>0.9654563556614546</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.5761156918454575</v>
+        <v>0.6838567507463069</v>
       </c>
       <c r="F4">
-        <v>0.3912223736152693</v>
+        <v>0.5898818289488812</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.768339686013521</v>
+        <v>0.5833984496724418</v>
       </c>
       <c r="C5">
-        <v>0.5987985341715687</v>
+        <v>0.7238026998826101</v>
       </c>
       <c r="D5">
-        <v>0.5761156918454575</v>
+        <v>0.6838567507463069</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6321422126746556</v>
+        <v>0.8408561534056185</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5084733096611793</v>
+        <v>0.8602012989989751</v>
       </c>
       <c r="C6">
-        <v>0.886037845656416</v>
+        <v>0.6022911707317689</v>
       </c>
       <c r="D6">
-        <v>0.3912223736152693</v>
+        <v>0.5898818289488812</v>
       </c>
       <c r="E6">
-        <v>0.6321422126746556</v>
+        <v>0.8408561534056185</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.948218489413392</v>
+        <v>-1.07889734117781</v>
       </c>
       <c r="D2">
-        <v>-0.04199781583525591</v>
+        <v>-1.125612532719752</v>
       </c>
       <c r="E2">
-        <v>0.300328930190103</v>
+        <v>-0.5566304450106097</v>
       </c>
       <c r="F2">
-        <v>0.6785688267966051</v>
+        <v>-0.1781939830592416</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.948218489413392</v>
+        <v>1.07889734117781</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.7449389116060402</v>
+        <v>0.04380329022196932</v>
       </c>
       <c r="E3">
-        <v>-0.5383388273454124</v>
+        <v>0.3579358421605465</v>
       </c>
       <c r="F3">
-        <v>-0.1459547105358091</v>
+        <v>0.5287236196266789</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.04199781583525591</v>
+        <v>1.125612532719752</v>
       </c>
       <c r="C4">
-        <v>0.7449389116060402</v>
+        <v>-0.04380329022196932</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5724191171045615</v>
+        <v>0.412650123375375</v>
       </c>
       <c r="F4">
-        <v>0.8847718767600312</v>
+        <v>0.5470043675171717</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.300328930190103</v>
+        <v>0.5566304450106097</v>
       </c>
       <c r="C5">
-        <v>0.5383388273454124</v>
+        <v>-0.3579358421605465</v>
       </c>
       <c r="D5">
-        <v>-0.5724191171045615</v>
+        <v>-0.412650123375375</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4893929207338083</v>
+        <v>0.2031873595599624</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.6785688267966051</v>
+        <v>0.1781939830592416</v>
       </c>
       <c r="C6">
-        <v>0.1459547105358091</v>
+        <v>-0.5287236196266789</v>
       </c>
       <c r="D6">
-        <v>-0.8847718767600312</v>
+        <v>-0.5470043675171717</v>
       </c>
       <c r="E6">
-        <v>-0.4893929207338083</v>
+        <v>-0.2031873595599624</v>
       </c>
       <c r="F6">
         <v>0</v>
